--- a/Bug Reports/import letter of credit test case of globe team.xlsx
+++ b/Bug Reports/import letter of credit test case of globe team.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC340F5A-E25A-4B8A-BD62-E503AC21F4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866DAF81-136D-40C6-A49E-0F718BECDE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>fixing the commission in issuance event for multiple quarters</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>(71A) Reimbursing Bank's Charges: we need only one field to specify if the charge 'CLM' or 'OUR', so remove the another field.</t>
+  </si>
+  <si>
+    <t>for mixed-payment type, the fileds 'usanse days' &amp; 'from event' should be optional.</t>
   </si>
 </sst>
 </file>
@@ -835,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,8 +1157,8 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
@@ -1164,7 +1167,10 @@
         <v>45319</v>
       </c>
       <c r="F17" s="10">
-        <v>45341</v>
+        <v>45362</v>
+      </c>
+      <c r="G17" s="15">
+        <v>45362</v>
       </c>
       <c r="K17" s="9"/>
     </row>
@@ -1265,7 +1271,7 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
@@ -1275,7 +1281,10 @@
         <v>45329</v>
       </c>
       <c r="F22" s="10">
-        <v>45341</v>
+        <v>45362</v>
+      </c>
+      <c r="G22" s="15">
+        <v>45362</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1285,7 +1294,7 @@
       <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D23" t="s">
@@ -1295,7 +1304,10 @@
         <v>45329</v>
       </c>
       <c r="F23" s="10">
-        <v>45341</v>
+        <v>45362</v>
+      </c>
+      <c r="G23" s="15">
+        <v>45362</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1610,6 +1622,31 @@
       </c>
       <c r="F39" s="10">
         <v>45358</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="10">
+        <v>45362</v>
+      </c>
+      <c r="F40" s="10">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
